--- a/Варианты.xlsx
+++ b/Варианты.xlsx
@@ -1,49 +1,114 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D01AC57-258A-4A48-AE84-A599D8CA0355}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5821FB11-CAC0-4FEF-8C4C-512B2F61A490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28110" yWindow="525" windowWidth="28485" windowHeight="15075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Шеломенцев Илья Валентинович</t>
-  </si>
-  <si>
-    <t>Кротова Мария Павловна</t>
-  </si>
-  <si>
-    <t>Хафизов Тимур Расулович</t>
-  </si>
-  <si>
-    <t>Филиппов Никита Дмитриевич</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+  <si>
+    <t>1. Введение в 3D моделирование</t>
+  </si>
+  <si>
+    <t>Домашняя работа 1</t>
+  </si>
+  <si>
+    <t>Домашняя работа 2</t>
+  </si>
+  <si>
+    <t>Домашняя работа 3</t>
+  </si>
+  <si>
+    <t>2. Введение в Matlab</t>
+  </si>
+  <si>
+    <t>Домашняя работа</t>
+  </si>
+  <si>
+    <t>3. Введение в Unity</t>
+  </si>
+  <si>
+    <t>4. Компьютерные технологии управления в робототехнике</t>
+  </si>
+  <si>
+    <t>Домашняя работа 4</t>
+  </si>
+  <si>
+    <t>5. Компьютерное зрение и роботы</t>
+  </si>
+  <si>
+    <t>Домашняя работа 5</t>
+  </si>
+  <si>
+    <t>Шеломенцев 
+Илья 
+Валентинович</t>
+  </si>
+  <si>
+    <t>Кротова 
+Мария 
+Павловна</t>
+  </si>
+  <si>
+    <t>Хафизов 
+Тимур 
+Расулович</t>
+  </si>
+  <si>
+    <t>Филиппов 
+Никита 
+Дмитриевич</t>
+  </si>
+  <si>
+    <t>Студент</t>
+  </si>
+  <si>
+    <t>Вариант</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -67,8 +132,23 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -349,38 +429,280 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="57" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="12" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5">
+        <v>2</v>
+      </c>
+      <c r="E2" s="5">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A18:A22"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A13:A16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>